--- a/Calculations/LT8490 boost_uni.xlsx
+++ b/Calculations/LT8490 boost_uni.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9D8C13-3A09-4A09-AC03-B75C28F88750}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerPart" sheetId="1" r:id="rId1"/>
@@ -13,17 +14,24 @@
     <sheet name="Расчет радиатора" sheetId="3" r:id="rId4"/>
     <sheet name="Расчет диода" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -154,33 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-100V ключ BSC060N10NS3 G</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B74" authorId="0" shapeId="0">
+    <comment ref="B74" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -206,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A76" authorId="0" shapeId="0">
+    <comment ref="A76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B81" authorId="0" shapeId="0">
+    <comment ref="B81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -258,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="0" shapeId="0">
+    <comment ref="A90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B97" authorId="0" shapeId="0">
+    <comment ref="B97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A106" authorId="0" shapeId="0">
+    <comment ref="A106" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -336,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A120" authorId="0" shapeId="0">
+    <comment ref="A120" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B127" authorId="0" shapeId="0">
+    <comment ref="B127" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -388,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B128" authorId="0" shapeId="0">
+    <comment ref="B128" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -414,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B129" authorId="0" shapeId="0">
+    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -440,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B131" authorId="0" shapeId="0">
+    <comment ref="B131" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -466,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B135" authorId="0" shapeId="0">
+    <comment ref="B135" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -497,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A139" authorId="0" shapeId="0">
+    <comment ref="A139" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -526,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A156" authorId="0" shapeId="0">
+    <comment ref="A156" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -553,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A172" authorId="0" shapeId="0">
+    <comment ref="A172" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -579,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B208" authorId="0" shapeId="0">
+    <comment ref="B208" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -605,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B221" authorId="0" shapeId="0">
+    <comment ref="B221" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -636,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="185">
   <si>
     <t>Расчет boost конвертера на LT8490</t>
   </si>
@@ -726,13 +708,7 @@
     <t>kHz</t>
   </si>
   <si>
-    <t>//215kOhm@202kHz</t>
-  </si>
-  <si>
     <t>uH</t>
-  </si>
-  <si>
-    <t>Берем с запасом</t>
   </si>
   <si>
     <t>L(MIN2,BOOST) ≅</t>
@@ -1043,9 +1019,6 @@
   </si>
   <si>
     <t>8-PowerTDFN, 5 Leads</t>
-  </si>
-  <si>
-    <t>//Power Stage Designer Tool</t>
   </si>
   <si>
     <t>exclude</t>
@@ -1152,12 +1125,6 @@
     <t>N2=</t>
   </si>
   <si>
-    <t>Для ключей 100V</t>
-  </si>
-  <si>
-    <t>15||25</t>
-  </si>
-  <si>
     <t>RFBOUT1 (R18)=</t>
   </si>
   <si>
@@ -1173,9 +1140,6 @@
     <t>Универсальный вход</t>
   </si>
   <si>
-    <t>delta</t>
-  </si>
-  <si>
     <t>Rfbin1 (R17+R20)=</t>
   </si>
   <si>
@@ -1222,12 +1186,21 @@
   </si>
   <si>
     <t>Vin(MIN)_PV2=</t>
+  </si>
+  <si>
+    <t>//from the Power Stage Designer Tool</t>
+  </si>
+  <si>
+    <t>//120kHz</t>
+  </si>
+  <si>
+    <t>08.07.2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1342,7 +1315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1365,68 +1338,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1435,7 +1346,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -1452,12 +1363,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1493,7 +1398,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1540,7 +1451,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1587,7 +1504,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPr id="1027" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1634,7 +1557,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1681,7 +1610,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1728,7 +1663,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPr id="1028" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1775,7 +1716,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPr id="1029" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1822,7 +1769,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPr id="1030" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1869,7 +1822,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPr id="1031" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1916,7 +1875,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPr id="1032" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1963,7 +1928,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPr id="1033" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2010,7 +1981,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPr id="1034" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2057,7 +2034,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1035" name="Picture 11"/>
+        <xdr:cNvPr id="1035" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2104,7 +2087,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1036" name="Picture 12"/>
+        <xdr:cNvPr id="1036" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2151,7 +2140,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1042" name="Picture 18"/>
+        <xdr:cNvPr id="1042" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2198,7 +2193,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1043" name="Picture 19"/>
+        <xdr:cNvPr id="1043" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2245,7 +2246,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1044" name="Picture 20"/>
+        <xdr:cNvPr id="1044" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2292,7 +2299,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1045" name="Picture 21"/>
+        <xdr:cNvPr id="1045" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2339,7 +2352,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1046" name="Picture 22"/>
+        <xdr:cNvPr id="1046" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2386,7 +2405,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1047" name="Picture 23"/>
+        <xdr:cNvPr id="1047" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2433,7 +2458,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2471,7 +2502,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2509,7 +2546,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2547,7 +2590,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2585,7 +2634,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2623,7 +2678,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2661,7 +2722,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2699,7 +2766,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2737,7 +2810,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Рисунок 12"/>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2775,7 +2854,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Рисунок 13"/>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2813,7 +2898,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Рисунок 14"/>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2851,7 +2942,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Рисунок 15"/>
+        <xdr:cNvPr id="16" name="Рисунок 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2889,7 +2986,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Рисунок 16"/>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2927,7 +3030,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2965,7 +3074,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Рисунок 17"/>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3008,7 +3123,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6"/>
+        <xdr:cNvPr id="2" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3055,7 +3176,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 7"/>
+        <xdr:cNvPr id="3" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3102,7 +3229,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 8"/>
+        <xdr:cNvPr id="4" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3154,7 +3287,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3192,7 +3331,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3230,7 +3375,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3273,7 +3424,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3311,7 +3468,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3349,7 +3512,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3392,7 +3561,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3494,6 +3669,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3529,6 +3721,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3704,11 +3913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,13 +3937,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43970</v>
+      <c r="A3" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3742,12 +3951,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <v>7.87</v>
@@ -3756,12 +3965,12 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B10">
         <v>21</v>
@@ -3770,12 +3979,12 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B11">
         <v>40</v>
@@ -3784,12 +3993,12 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <f>8.22</f>
@@ -3799,18 +4008,18 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3825,7 +4034,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3840,7 +4049,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3854,22 +4063,22 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B17">
-        <f>B9*B12*0.95/B15</f>
-        <v>1.3302344155844155</v>
+        <f>B10*B12*0.95/B15</f>
+        <v>3.5495454545454543</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3877,7 +4086,7 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -3885,72 +4094,72 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <f>150</f>
         <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B24">
         <v>0.6</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>50</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
         <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <f>12.5</f>
@@ -3960,20 +4169,12 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>6.5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3987,13 +4188,13 @@
       </c>
       <c r="B34">
         <f>(43750/B18-1)</f>
-        <v>215.58415841584159</v>
+        <v>363.58333333333331</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4018,7 +4219,7 @@
         <v>12</v>
       </c>
       <c r="B41">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -4068,7 +4269,7 @@
       </c>
       <c r="B52" s="14">
         <f>2*B41*B9/((2*B16*B15)+(B46*B9))</f>
-        <v>3.4069264069264071</v>
+        <v>3.0662337662337662</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -4085,7 +4286,7 @@
       </c>
       <c r="B56" s="14">
         <f>B52/1.3</f>
-        <v>2.6207126207126206</v>
+        <v>2.3586413586413584</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
@@ -4108,34 +4309,29 @@
       <c r="A61" t="s">
         <v>27</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="14">
         <f>B9*B38/100  /  (2*B18*1000*(B41/B57/1000-B16*B15/B9))  * 10^6</f>
-        <v>-0.6884720196768267</v>
+        <v>-1.1588949881958923</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68">
+        <v>30</v>
+      </c>
+      <c r="B68" s="14">
         <f>(B15-(B9*B15/(B15-B9))*B57/1000)/(0.08*B18*1000)  * 10^6</f>
-        <v>2850.105922899882</v>
+        <v>4797.6783035481349</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4143,18 +4339,18 @@
         <v>27</v>
       </c>
       <c r="B74" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4163,7 +4359,7 @@
       </c>
       <c r="B78">
         <f>(B38/100)*B10 / (B18*1000*B74*10^(-6))</f>
-        <v>3.9205056869323296</v>
+        <v>4.399678604224059</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -4171,452 +4367,272 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B80">
         <f>(2*B41/1000*B10)/((2*B16*B14)+(1.3*B78*B10))*1000</f>
-        <v>9.7080689980233927</v>
+        <v>8.4808274514669737</v>
       </c>
       <c r="C80" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>10</v>
       </c>
       <c r="C81" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D81" s="11"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B87">
         <f>(B23-B19)/B25</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="C87" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>57</v>
-      </c>
-      <c r="I90" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>61</v>
-      </c>
-      <c r="I91" s="16"/>
-      <c r="J91" s="17"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>59</v>
       </c>
       <c r="B92">
         <f>(B15/B10*B16)^2*B26/1000*1.5</f>
         <v>1.4520000000000002</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
-      </c>
-      <c r="I92" s="18">
-        <f>(B15/B9*B16)^2*B27/1000*1.5</f>
-        <v>5.3759978300496156</v>
-      </c>
-      <c r="J92" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I93" s="18"/>
-      <c r="J93" s="19"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>51</v>
-      </c>
-      <c r="I94" s="18"/>
-      <c r="J94" s="19"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I95" s="18"/>
-      <c r="J95" s="19"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B96">
         <f>B10*B16*B18*1000*20*10^(-9)</f>
-        <v>0.33935999999999999</v>
+        <v>0.2016</v>
       </c>
       <c r="C96" t="s">
-        <v>48</v>
-      </c>
-      <c r="I96" s="18"/>
-      <c r="J96" s="19"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>0</v>
       </c>
-      <c r="I97" s="18"/>
-      <c r="J97" s="19"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I98" s="18"/>
-      <c r="J98" s="19"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>53</v>
-      </c>
-      <c r="I99" s="18"/>
-      <c r="J99" s="19"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>54</v>
-      </c>
-      <c r="I100" s="18"/>
-      <c r="J100" s="19"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I101" s="18"/>
-      <c r="J101" s="19"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I102" s="18"/>
-      <c r="J102" s="19"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>56</v>
-      </c>
-      <c r="I103" s="18"/>
-      <c r="J103" s="19"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>55</v>
       </c>
       <c r="B104">
         <f>B92+B97</f>
         <v>1.4520000000000002</v>
       </c>
       <c r="C104" t="s">
-        <v>48</v>
-      </c>
-      <c r="I104" s="18"/>
-      <c r="J104" s="19"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I105" s="18"/>
-      <c r="J105" s="19"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>58</v>
-      </c>
-      <c r="I106" s="18"/>
-      <c r="J106" s="19"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>61</v>
-      </c>
-      <c r="I107" s="18"/>
-      <c r="J107" s="19"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>60</v>
       </c>
       <c r="B108">
         <f>(B15-B10)*B15*B16^2*B26/1000*1.5 / B10^2</f>
         <v>0.79200000000000026</v>
       </c>
       <c r="C108" t="s">
-        <v>48</v>
-      </c>
-      <c r="I108" s="18">
-        <f>(B15-B9)*B15*B16^2*B27/1000*1.5 / B9^2</f>
-        <v>4.4602163815108611</v>
-      </c>
-      <c r="J108" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I109" s="18"/>
-      <c r="J109" s="19"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I110" s="18"/>
-      <c r="J110" s="19"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B111">
         <f>B15^2*B16*B18*1000*20^(-9)/B10</f>
-        <v>1.6040062500000002E-4</v>
+        <v>9.5287500000000019E-5</v>
       </c>
       <c r="C111" t="s">
-        <v>48</v>
-      </c>
-      <c r="I111" s="18"/>
-      <c r="J111" s="19"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I112" s="18"/>
-      <c r="J112" s="19"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I113" s="18"/>
-      <c r="J113" s="19"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B114">
         <f>B108+B111</f>
-        <v>0.79216040062500026</v>
+        <v>0.79209528750000024</v>
       </c>
       <c r="C114" t="s">
-        <v>48</v>
-      </c>
-      <c r="I114" s="18">
-        <f>I108+B111</f>
-        <v>4.4603767821358611</v>
-      </c>
-      <c r="J114" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I115" s="18"/>
-      <c r="J115" s="19"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I116" s="18"/>
-      <c r="J116" s="19"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>64</v>
-      </c>
-      <c r="I117" s="18"/>
-      <c r="J117" s="19"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I118" s="18"/>
-      <c r="J118" s="19"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I119" s="18"/>
-      <c r="J119" s="19"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I120" s="18"/>
-      <c r="J120" s="19"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I121" s="18"/>
-      <c r="J121" s="19"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>66</v>
       </c>
       <c r="B122">
         <f>B15/B10*B16^2*1.5*B26/1000</f>
         <v>0.66</v>
       </c>
       <c r="C122" t="s">
-        <v>48</v>
-      </c>
-      <c r="I122" s="18">
-        <f>B15/B9*B16^2*1.5*B27/1000</f>
-        <v>0.91578144853875487</v>
-      </c>
-      <c r="J122" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I123" s="18"/>
-      <c r="J123" s="19"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I124" s="18"/>
-      <c r="J124" s="19"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I125" s="18"/>
-      <c r="J125" s="19"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I126" s="18"/>
-      <c r="J126" s="19"/>
-      <c r="K126" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B127">
         <f>B104*B25+B19</f>
         <v>112.60000000000001</v>
       </c>
       <c r="C127" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D127" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>68</v>
-      </c>
-      <c r="I127" s="18">
-        <f>I92*B25+B19</f>
-        <v>308.79989150248076</v>
-      </c>
-      <c r="J127" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K127">
-        <f>B127-I127</f>
-        <v>-196.19989150248074</v>
-      </c>
-      <c r="L127" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>70</v>
       </c>
       <c r="B128">
         <f>B114*B25+B19</f>
-        <v>79.608020031250021</v>
+        <v>79.604764375000002</v>
       </c>
       <c r="C128" t="s">
-        <v>46</v>
-      </c>
-      <c r="I128" s="18">
-        <f>I114*B25+B19</f>
-        <v>263.01883910679305</v>
-      </c>
-      <c r="J128" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K128">
-        <f>B128-I128</f>
-        <v>-183.41081907554303</v>
-      </c>
-      <c r="L128" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B129">
         <f>B122*B25+B19</f>
         <v>73</v>
       </c>
       <c r="C129" t="s">
-        <v>46</v>
-      </c>
-      <c r="I129" s="18">
-        <f>I122*B25+B19</f>
-        <v>85.789072426937736</v>
-      </c>
-      <c r="J129" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K129">
-        <f>B129-I129</f>
-        <v>-12.789072426937736</v>
-      </c>
-      <c r="L129" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I130" s="20"/>
-      <c r="J130" s="21"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B131">
         <f>B127-B104*$B$24</f>
         <v>111.72880000000001</v>
       </c>
       <c r="C131" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D131" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <f>B128-B114*$B$24</f>
-        <v>79.132723790875019</v>
+        <v>79.129507202500008</v>
       </c>
       <c r="C132" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <f>B129-B122*$B$24</f>
         <v>72.603999999999999</v>
       </c>
       <c r="C133" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B135">
         <f>B15</f>
@@ -4626,56 +4642,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B139">
         <v>20000</v>
       </c>
       <c r="C139" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D139" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B141">
         <f>B139*((B15*(1.241/1.211-0.128)-1))</f>
         <v>808618.17341040459</v>
       </c>
       <c r="C141" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142">
         <f>820000</f>
         <v>820000</v>
       </c>
       <c r="C142" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B144">
         <f>B142*B139*0.833/((B139*B15*1.241/1.211)-B139-B142)</f>
         <v>127805.94851827821</v>
       </c>
       <c r="C144" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -4683,19 +4699,19 @@
         <v>120000</v>
       </c>
       <c r="C145" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B146">
         <f>0.2*B145</f>
         <v>24000</v>
       </c>
       <c r="C146" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -4704,24 +4720,24 @@
         <v>24000</v>
       </c>
       <c r="C147" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B148">
         <f>1/(500*B147)*10^(9)</f>
         <v>83.333333333333343</v>
       </c>
       <c r="C148" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -4729,7 +4745,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B156">
         <f>B142/(B147+B145)*(B158-1.89)</f>
@@ -4744,7 +4760,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B158">
         <f>1.211*(1+(B147+B145)/B139+(B147+B145)/B142)</f>
@@ -4756,7 +4772,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <f>(B158-1.89)/(B158-3.3)</f>
@@ -4768,7 +4784,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B162">
         <f>1-1.89/B158</f>
@@ -4804,7 +4820,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -4812,14 +4828,14 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B175">
         <f>100*((1+4.47/(B11-6))/(1+5.593/(B11-6)))</f>
         <v>97.163640037380333</v>
       </c>
       <c r="C175" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -4828,19 +4844,19 @@
         <v>107</v>
       </c>
       <c r="C176" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B180">
         <f>2.75*B176/(B11-6)</f>
         <v>8.6544117647058822</v>
       </c>
       <c r="C180" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4848,19 +4864,19 @@
         <v>8.66</v>
       </c>
       <c r="C181" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B183">
         <f>1/(1/(100-B176)-1/B181)</f>
         <v>-3.8710089399744576</v>
       </c>
       <c r="C183" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -4870,14 +4886,14 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B186">
         <f>0.2*B181</f>
         <v>1.7320000000000002</v>
       </c>
       <c r="C186" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -4887,14 +4903,14 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B189">
         <f>1/(1000*B186*1000)*10^6</f>
         <v>0.57736720554272503</v>
       </c>
       <c r="C189" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4903,17 +4919,17 @@
         <v>0.47</v>
       </c>
       <c r="C190" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B194">
         <f>1.205*(B176/(B187+B181)+B176/B184+1)</f>
@@ -4923,12 +4939,12 @@
         <v>4</v>
       </c>
       <c r="D194" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B195">
         <f>B194-3.3*(B176/(B187+B181))</f>
@@ -4938,17 +4954,17 @@
         <v>4</v>
       </c>
       <c r="D195" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B205">
         <f>0.0497/B16*1000</f>
@@ -4968,14 +4984,14 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B208">
         <f>1208/(B16*1*B206/1000)/1000</f>
         <v>25.166666666666668</v>
       </c>
       <c r="C208" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -4983,34 +4999,34 @@
         <v>25</v>
       </c>
       <c r="C209" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B211">
         <f>24.3*B209/(B209-24.3)</f>
         <v>867.85714285714369</v>
       </c>
       <c r="C211" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B221">
         <f>0.0505/(1.3*B12) * 1000</f>
@@ -5030,7 +5046,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D34" r:id="rId1"/>
+    <hyperlink ref="D34" r:id="rId1" display="//215kOhm@202kHz" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
@@ -5040,7 +5056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5051,18 +5067,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="11"/>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5070,23 +5086,23 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B7" s="13">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5096,7 +5112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -5111,22 +5127,22 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -5137,7 +5153,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -5148,7 +5164,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <f>8.5</f>
@@ -5212,26 +5228,26 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22">
         <f>0.3*B11/(1-PowerPart!B38/100)</f>
@@ -5243,41 +5259,41 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29">
         <f>B6*PowerPart!B38/100/((Nordic!B12*1000)*Nordic!B22)*10^6</f>
         <v>10.494686991890283</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B36">
         <f>(B10-B6)*B11/(B10*B12*1000*0.1)*10^6</f>
         <v>120.86922978012085</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
@@ -5286,7 +5302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -5300,17 +5316,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5326,72 +5342,72 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="8">
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13">
         <f>150</f>
         <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14">
         <f>1.6</f>
         <v>1.6</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15">
         <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16">
         <f>0.56</f>
@@ -5401,106 +5417,106 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19">
         <f>0.5</f>
         <v>0.5</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22">
         <f>B16*B7</f>
         <v>2.8000000000000003</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24">
         <f>B22*B15+B8</f>
         <v>236.00000000000003</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25">
         <f>B22*B14+B24</f>
         <v>240.48000000000002</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B35">
         <f>(B13-B8)/B22-B14-B19</f>
         <v>37.185714285714283</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5508,55 +5524,55 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B38">
         <f>B22*B36+B8</f>
         <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B39">
         <f>B22*B19+B38</f>
         <v>83.4</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B40">
         <f>B22*B14+B39</f>
         <v>87.88000000000001</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5567,7 +5583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5578,17 +5594,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5604,60 +5620,60 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="8">
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13">
         <f>150</f>
         <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16">
         <f>0.45</f>
@@ -5667,34 +5683,34 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <f>B16*B7</f>
         <v>1.8</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22">
         <f>B19*B15+B8</f>
         <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
